--- a/Эконометрика/1/сем 1 от 08.02.24.xlsx
+++ b/Эконометрика/1/сем 1 от 08.02.24.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\6 сем\__repo\6_sem\Эконометрика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\6 сем\__repo\6_sem\Эконометрика\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BE34ED-CA6A-4B68-9E15-96A57707F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBDE285-3A61-452B-B37F-BA7C2F74F315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>y</t>
   </si>
@@ -67,6 +68,24 @@
   </si>
   <si>
     <t>R^2</t>
+  </si>
+  <si>
+    <t>y*x</t>
+  </si>
+  <si>
+    <t>Q(Y)</t>
+  </si>
+  <si>
+    <t>P(X)</t>
+  </si>
+  <si>
+    <t>СРЗНАЧ</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Qост</t>
   </si>
 </sst>
 </file>
@@ -896,6 +915,430 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42334711286089244"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.27480249343832019"/>
+                  <c:y val="8.524715660542441E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7029-43FC-B69D-5EFF9D0A58D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="790649855"/>
+        <c:axId val="793009343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="790649855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="793009343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="793009343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="790649855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -976,6 +1419,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1493,6 +1976,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2077,6 +3076,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FAAFC39-4993-AEC7-3838-E45878D96416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2350,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView topLeftCell="A12" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2869,7 +3909,7 @@
         <v>109.19968304278919</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E22:E32" si="9">C4-$C$14</f>
+        <f t="shared" ref="E23:E31" si="9">C4-$C$14</f>
         <v>-12.666666666666671</v>
       </c>
     </row>
@@ -3010,6 +4050,484 @@
       <c r="H32">
         <f>G32/F32</f>
         <v>0.9665676780804997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DE5EA4-DB0F-488C-AFD5-82F07496143F}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>1100</v>
+      </c>
+      <c r="E2">
+        <f>B2^2</f>
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <f>$C$20+$C$19*B2</f>
+        <v>105.92592592592591</v>
+      </c>
+      <c r="G2">
+        <f>C2-F2</f>
+        <v>4.0740740740740904</v>
+      </c>
+      <c r="H2">
+        <f>G2^2</f>
+        <v>16.598079561042656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">B3*C3</f>
+        <v>1500</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="1">B3^2</f>
+        <v>400</v>
+      </c>
+      <c r="F3">
+        <f>$C$20+$C$19*B3</f>
+        <v>84.629629629629619</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="2">C3-F3</f>
+        <v>-9.6296296296296191</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="3">G3^2</f>
+        <v>92.729766803840675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F3:F13" si="4">$C$20+$C$19*B4</f>
+        <v>95.277777777777771</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>4.7222222222222285</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>22.299382716049443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>73.981481481481481</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>6.018518518518519</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>36.222565157750353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>-3.3333333333333357</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>11.111111111111127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1925</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1225</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>52.68518518518519</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.3148148148148096</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>5.3583676268861211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>42.037037037037038</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>-2.0370370370370381</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>4.1495198902606356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1225</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>52.68518518518519</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>27.31481481481481</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>746.09910836762663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>73.981481481481481</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>-13.981481481481481</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>195.48182441700959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>42.037037037037038</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>-12.037037037037038</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>144.89026063100141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>31.3888888888889</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>8.6111111111111001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>74.151234567901042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>42.037037037037038</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-12.037037037037038</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>144.89026063100141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B13)</f>
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:E14" si="5">AVERAGE(C2:C13)</f>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>1660.4166666666667</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>1012.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f>-(D14-C14*B14)/(B14*B14-E14)</f>
+        <v>-2.1296296296296289</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f>C14-B14*C19</f>
+        <v>127.2222222222222</v>
+      </c>
+      <c r="E20">
+        <f>SUMXMY2(C2:C13,F2:F13)</f>
+        <v>1493.9814814814811</v>
+      </c>
+      <c r="F20">
+        <f>SUM(H2:H13)</f>
+        <v>1493.9814814814811</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f>SQRT(SUM(H2:H13)/(12-1-1))</f>
+        <v>12.222853519049801</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
